--- a/public/植物本底.xlsx
+++ b/public/植物本底.xlsx
@@ -1,37 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\项目资料\外来物种入侵\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B855240D-E20A-4B41-BFAD-4315B039F81F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{149EA069-2E1B-49C5-A861-0956DF920741}"/>
+    <workbookView windowWidth="28060" windowHeight="12080"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43">
   <si>
     <t>入侵监测物种</t>
   </si>
@@ -40,23 +23,18 @@
   </si>
   <si>
     <t>年份</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>科</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>属</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>种</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>主要类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>紫茎泽兰</t>
@@ -126,6 +104,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>册亨县岩架镇高速路（</t>
     </r>
     <r>
@@ -133,7 +117,7 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>S312</t>
     </r>
@@ -142,7 +126,6 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>道路）</t>
@@ -174,43 +157,35 @@
   </si>
   <si>
     <t>荔波县黎明关水族乡尧古村</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>荔波县野生桑猕猴桃兰花原生境保护区</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>荔波县小七孔镇地莪村</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>纳雍</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>纳雍云贵水韭原生境保护区</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>清水江天柱县白市水域</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>贵阳市阿哈湖水库</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>纳雍（云贵水韭）</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -218,39 +193,373 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="华文宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -262,20 +571,262 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -285,24 +836,71 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -351,7 +949,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -384,26 +982,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -436,23 +1017,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -594,26 +1158,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DE31E6A-3BD6-4F2D-AF4C-9C0635DE6359}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:G64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="23.6607142857143" customWidth="1"/>
+    <col min="2" max="2" width="19.0446428571429" customWidth="1"/>
+    <col min="6" max="6" width="18.4553571428571" customWidth="1"/>
+    <col min="7" max="7" width="26.1875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="22.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" ht="14.75" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -636,7 +1201,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="21.6" x14ac:dyDescent="0.25">
+    <row r="2" ht="15.6" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -655,11 +1220,11 @@
       <c r="F2">
         <v>63</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="21.6" x14ac:dyDescent="0.25">
+    <row r="3" ht="15.6" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -678,11 +1243,11 @@
       <c r="F3">
         <v>106</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="21.6" x14ac:dyDescent="0.25">
+    <row r="4" ht="15.6" spans="1:7">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -701,11 +1266,11 @@
       <c r="F4">
         <v>213</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="21.6" x14ac:dyDescent="0.25">
+    <row r="5" ht="15.6" spans="1:7">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -724,11 +1289,11 @@
       <c r="F5">
         <v>108</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="21.6" x14ac:dyDescent="0.25">
+    <row r="6" ht="14" spans="1:3">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -739,7 +1304,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="32.4" x14ac:dyDescent="0.25">
+    <row r="7" ht="14" spans="1:3">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
@@ -750,7 +1315,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="21.6" x14ac:dyDescent="0.25">
+    <row r="8" ht="14" spans="1:3">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -761,7 +1326,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="32.4" x14ac:dyDescent="0.25">
+    <row r="9" ht="15.6" spans="1:7">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -780,11 +1345,11 @@
       <c r="F9">
         <v>102</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="21.6" x14ac:dyDescent="0.25">
+    <row r="10" ht="15.6" spans="1:7">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -803,11 +1368,11 @@
       <c r="F10">
         <v>65</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="21.6" x14ac:dyDescent="0.25">
+    <row r="11" ht="14" spans="1:3">
       <c r="A11" s="2" t="s">
         <v>23</v>
       </c>
@@ -818,7 +1383,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="21.6" x14ac:dyDescent="0.25">
+    <row r="12" ht="15.6" spans="1:7">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -837,11 +1402,11 @@
       <c r="F12">
         <v>65</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="21.6" x14ac:dyDescent="0.25">
+    <row r="13" ht="15.6" spans="1:7">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
@@ -860,11 +1425,11 @@
       <c r="F13">
         <v>104</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="21.6" x14ac:dyDescent="0.25">
+    <row r="14" ht="15.6" spans="1:7">
       <c r="A14" s="2" t="s">
         <v>23</v>
       </c>
@@ -883,15 +1448,15 @@
       <c r="F14">
         <v>95</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+    <row r="15" ht="24" spans="1:7">
+      <c r="A15" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C15">
@@ -906,15 +1471,15 @@
       <c r="F15">
         <v>160</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="24" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+    <row r="16" ht="15.6" spans="1:7">
+      <c r="A16" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C16">
@@ -929,15 +1494,15 @@
       <c r="F16">
         <v>96</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="36" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+    <row r="17" ht="15.6" spans="1:7">
+      <c r="A17" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C17">
@@ -952,15 +1517,15 @@
       <c r="F17">
         <v>106</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="36" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+    <row r="18" ht="15.6" spans="1:7">
+      <c r="A18" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C18">
@@ -975,15 +1540,15 @@
       <c r="F18">
         <v>65</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="48" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+    <row r="19" ht="20" spans="1:7">
+      <c r="A19" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C19">
@@ -998,16 +1563,16 @@
       <c r="F19">
         <v>104</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="48" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+    <row r="20" ht="20" spans="1:7">
+      <c r="A20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>40</v>
       </c>
       <c r="C20">
         <v>2017</v>
@@ -1021,16 +1586,16 @@
       <c r="F20">
         <v>95</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G20" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>41</v>
+    <row r="21" ht="15.6" spans="1:7">
+      <c r="A21" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="C21">
         <v>2017</v>
@@ -1044,16 +1609,16 @@
       <c r="F21">
         <v>160</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="G21" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="36" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+    <row r="22" ht="15.6" spans="1:7">
+      <c r="A22" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>41</v>
       </c>
       <c r="C22">
         <v>2017</v>
@@ -1067,11 +1632,11 @@
       <c r="F22">
         <v>96</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="G22" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="21.6" x14ac:dyDescent="0.25">
+    <row r="23" ht="15.6" spans="1:7">
       <c r="A23" s="2" t="s">
         <v>7</v>
       </c>
@@ -1090,11 +1655,11 @@
       <c r="F23">
         <v>71</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="G23" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="21.6" x14ac:dyDescent="0.25">
+    <row r="24" ht="15.6" spans="1:7">
       <c r="A24" s="2" t="s">
         <v>7</v>
       </c>
@@ -1113,11 +1678,11 @@
       <c r="F24">
         <v>108</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="G24" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="21.6" x14ac:dyDescent="0.25">
+    <row r="25" ht="15.6" spans="1:7">
       <c r="A25" s="2" t="s">
         <v>11</v>
       </c>
@@ -1136,11 +1701,11 @@
       <c r="F25">
         <v>211</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="G25" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="21.6" x14ac:dyDescent="0.25">
+    <row r="26" ht="15.6" spans="1:7">
       <c r="A26" s="2" t="s">
         <v>11</v>
       </c>
@@ -1159,22 +1724,22 @@
       <c r="F26">
         <v>107</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="G26" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="21.6" x14ac:dyDescent="0.25">
+    <row r="27" ht="14" spans="1:3">
       <c r="A27" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="C27">
         <v>2018</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="32.4" x14ac:dyDescent="0.25">
+    <row r="28" ht="14" spans="1:3">
       <c r="A28" s="2" t="s">
         <v>15</v>
       </c>
@@ -1185,7 +1750,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="21.6" x14ac:dyDescent="0.25">
+    <row r="29" ht="14" spans="1:3">
       <c r="A29" s="2" t="s">
         <v>11</v>
       </c>
@@ -1196,7 +1761,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="32.4" x14ac:dyDescent="0.25">
+    <row r="30" ht="15.6" spans="1:7">
       <c r="A30" s="2" t="s">
         <v>7</v>
       </c>
@@ -1215,11 +1780,11 @@
       <c r="F30">
         <v>103</v>
       </c>
-      <c r="G30" s="3" t="s">
+      <c r="G30" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="21.6" x14ac:dyDescent="0.25">
+    <row r="31" ht="15.6" spans="1:7">
       <c r="A31" s="2" t="s">
         <v>11</v>
       </c>
@@ -1238,22 +1803,22 @@
       <c r="F31">
         <v>61</v>
       </c>
-      <c r="G31" s="3" t="s">
+      <c r="G31" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="21.6" x14ac:dyDescent="0.25">
+    <row r="32" ht="14" spans="1:3">
       <c r="A32" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="C32">
         <v>2018</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="21.6" x14ac:dyDescent="0.25">
+    <row r="33" ht="15.6" spans="1:7">
       <c r="A33" s="2" t="s">
         <v>11</v>
       </c>
@@ -1272,11 +1837,11 @@
       <c r="F33">
         <v>62</v>
       </c>
-      <c r="G33" s="3" t="s">
+      <c r="G33" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="21.6" x14ac:dyDescent="0.25">
+    <row r="34" ht="15.6" spans="1:7">
       <c r="A34" s="2" t="s">
         <v>11</v>
       </c>
@@ -1295,11 +1860,11 @@
       <c r="F34">
         <v>105</v>
       </c>
-      <c r="G34" s="3" t="s">
+      <c r="G34" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="21.6" x14ac:dyDescent="0.25">
+    <row r="35" ht="15.6" spans="1:7">
       <c r="A35" s="2" t="s">
         <v>23</v>
       </c>
@@ -1318,15 +1883,15 @@
       <c r="F35">
         <v>93</v>
       </c>
-      <c r="G35" s="3" t="s">
+      <c r="G35" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
+    <row r="36" ht="24" spans="1:7">
+      <c r="A36" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C36">
@@ -1341,15 +1906,15 @@
       <c r="F36">
         <v>157</v>
       </c>
-      <c r="G36" s="3" t="s">
+      <c r="G36" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="24" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
+    <row r="37" ht="15.6" spans="1:7">
+      <c r="A37" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C37">
@@ -1364,15 +1929,15 @@
       <c r="F37">
         <v>96</v>
       </c>
-      <c r="G37" s="3" t="s">
+      <c r="G37" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="36" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
+    <row r="38" ht="15.6" spans="1:7">
+      <c r="A38" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C38">
@@ -1387,15 +1952,15 @@
       <c r="F38">
         <v>106</v>
       </c>
-      <c r="G38" s="3" t="s">
+      <c r="G38" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="36" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
+    <row r="39" ht="15.6" spans="1:7">
+      <c r="A39" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C39">
@@ -1410,15 +1975,15 @@
       <c r="F39">
         <v>65</v>
       </c>
-      <c r="G39" s="3" t="s">
+      <c r="G39" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="48" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
+    <row r="40" ht="20" spans="1:7">
+      <c r="A40" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C40">
@@ -1433,16 +1998,16 @@
       <c r="F40">
         <v>104</v>
       </c>
-      <c r="G40" s="3" t="s">
+      <c r="G40" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="48" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
+    <row r="41" ht="20" spans="1:7">
+      <c r="A41" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>40</v>
       </c>
       <c r="C41">
         <v>2018</v>
@@ -1456,16 +2021,16 @@
       <c r="F41">
         <v>95</v>
       </c>
-      <c r="G41" s="3" t="s">
+      <c r="G41" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>41</v>
+    <row r="42" ht="15.6" spans="1:7">
+      <c r="A42" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="C42">
         <v>2018</v>
@@ -1479,16 +2044,16 @@
       <c r="F42">
         <v>160</v>
       </c>
-      <c r="G42" s="3" t="s">
+      <c r="G42" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="36" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
+    <row r="43" ht="15.6" spans="1:7">
+      <c r="A43" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>41</v>
       </c>
       <c r="C43">
         <v>2018</v>
@@ -1502,11 +2067,11 @@
       <c r="F43">
         <v>96</v>
       </c>
-      <c r="G43" s="3" t="s">
+      <c r="G43" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="21.6" x14ac:dyDescent="0.25">
+    <row r="44" ht="15.6" spans="1:7">
       <c r="A44" s="2" t="s">
         <v>7</v>
       </c>
@@ -1525,11 +2090,11 @@
       <c r="F44">
         <v>69</v>
       </c>
-      <c r="G44" s="3" t="s">
+      <c r="G44" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="21.6" x14ac:dyDescent="0.25">
+    <row r="45" ht="15.6" spans="1:7">
       <c r="A45" s="2" t="s">
         <v>7</v>
       </c>
@@ -1548,11 +2113,11 @@
       <c r="F45">
         <v>102</v>
       </c>
-      <c r="G45" s="3" t="s">
+      <c r="G45" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="21.6" x14ac:dyDescent="0.25">
+    <row r="46" ht="15.6" spans="1:7">
       <c r="A46" s="2" t="s">
         <v>11</v>
       </c>
@@ -1571,11 +2136,11 @@
       <c r="F46">
         <v>211</v>
       </c>
-      <c r="G46" s="3" t="s">
+      <c r="G46" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="21.6" x14ac:dyDescent="0.25">
+    <row r="47" ht="15.6" spans="1:7">
       <c r="A47" s="2" t="s">
         <v>11</v>
       </c>
@@ -1594,11 +2159,11 @@
       <c r="F47">
         <v>106</v>
       </c>
-      <c r="G47" s="3" t="s">
+      <c r="G47" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="21.6" x14ac:dyDescent="0.25">
+    <row r="48" ht="14" spans="1:3">
       <c r="A48" s="2" t="s">
         <v>15</v>
       </c>
@@ -1609,7 +2174,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="32.4" x14ac:dyDescent="0.25">
+    <row r="49" ht="14" spans="1:3">
       <c r="A49" s="2" t="s">
         <v>15</v>
       </c>
@@ -1620,7 +2185,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="21.6" x14ac:dyDescent="0.25">
+    <row r="50" ht="14" spans="1:3">
       <c r="A50" s="2" t="s">
         <v>11</v>
       </c>
@@ -1631,7 +2196,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="32.4" x14ac:dyDescent="0.25">
+    <row r="51" ht="15.6" spans="1:7">
       <c r="A51" s="2" t="s">
         <v>7</v>
       </c>
@@ -1650,11 +2215,11 @@
       <c r="F51">
         <v>100</v>
       </c>
-      <c r="G51" s="3" t="s">
+      <c r="G51" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="21.6" x14ac:dyDescent="0.25">
+    <row r="52" ht="15.6" spans="1:7">
       <c r="A52" s="2" t="s">
         <v>11</v>
       </c>
@@ -1673,11 +2238,11 @@
       <c r="F52">
         <v>60</v>
       </c>
-      <c r="G52" s="3" t="s">
+      <c r="G52" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="21.6" x14ac:dyDescent="0.25">
+    <row r="53" ht="14" spans="1:3">
       <c r="A53" s="2" t="s">
         <v>23</v>
       </c>
@@ -1688,7 +2253,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="21.6" x14ac:dyDescent="0.25">
+    <row r="54" ht="15.6" spans="1:7">
       <c r="A54" s="2" t="s">
         <v>11</v>
       </c>
@@ -1707,11 +2272,11 @@
       <c r="F54">
         <v>65</v>
       </c>
-      <c r="G54" s="3" t="s">
+      <c r="G54" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="21.6" x14ac:dyDescent="0.25">
+    <row r="55" ht="15.6" spans="1:7">
       <c r="A55" s="2" t="s">
         <v>11</v>
       </c>
@@ -1730,11 +2295,11 @@
       <c r="F55">
         <v>103</v>
       </c>
-      <c r="G55" s="3" t="s">
+      <c r="G55" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="21.6" x14ac:dyDescent="0.25">
+    <row r="56" ht="15.6" spans="1:7">
       <c r="A56" s="2" t="s">
         <v>23</v>
       </c>
@@ -1753,15 +2318,15 @@
       <c r="F56">
         <v>95</v>
       </c>
-      <c r="G56" s="3" t="s">
+      <c r="G56" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
+    <row r="57" ht="24" spans="1:7">
+      <c r="A57" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C57">
@@ -1776,15 +2341,15 @@
       <c r="F57">
         <v>154</v>
       </c>
-      <c r="G57" s="3" t="s">
+      <c r="G57" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="24" x14ac:dyDescent="0.25">
-      <c r="A58" s="4" t="s">
+    <row r="58" ht="15.6" spans="1:7">
+      <c r="A58" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B58" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C58">
@@ -1799,15 +2364,15 @@
       <c r="F58">
         <v>100</v>
       </c>
-      <c r="G58" s="3" t="s">
+      <c r="G58" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="36" x14ac:dyDescent="0.25">
-      <c r="A59" s="4" t="s">
+    <row r="59" ht="15.6" spans="1:7">
+      <c r="A59" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B59" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C59">
@@ -1822,15 +2387,15 @@
       <c r="F59">
         <v>106</v>
       </c>
-      <c r="G59" s="3" t="s">
+      <c r="G59" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="36" x14ac:dyDescent="0.25">
-      <c r="A60" s="4" t="s">
+    <row r="60" ht="15.6" spans="1:7">
+      <c r="A60" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="B60" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C60">
@@ -1845,15 +2410,15 @@
       <c r="F60">
         <v>65</v>
       </c>
-      <c r="G60" s="3" t="s">
+      <c r="G60" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="48" x14ac:dyDescent="0.25">
-      <c r="A61" s="4" t="s">
+    <row r="61" ht="20" spans="1:7">
+      <c r="A61" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B61" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C61">
@@ -1868,16 +2433,16 @@
       <c r="F61">
         <v>104</v>
       </c>
-      <c r="G61" s="3" t="s">
+      <c r="G61" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="48" x14ac:dyDescent="0.25">
-      <c r="A62" s="4" t="s">
+    <row r="62" ht="20" spans="1:7">
+      <c r="A62" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B62" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>40</v>
       </c>
       <c r="C62">
         <v>2019</v>
@@ -1891,16 +2456,16 @@
       <c r="F62">
         <v>95</v>
       </c>
-      <c r="G62" s="3" t="s">
+      <c r="G62" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A63" s="4" t="s">
-        <v>41</v>
+    <row r="63" ht="15.6" spans="1:7">
+      <c r="A63" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C63">
         <v>2019</v>
@@ -1914,16 +2479,16 @@
       <c r="F63">
         <v>160</v>
       </c>
-      <c r="G63" s="3" t="s">
+      <c r="G63" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="36" x14ac:dyDescent="0.25">
-      <c r="A64" s="4" t="s">
+    <row r="64" ht="15.6" spans="1:7">
+      <c r="A64" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B64" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>41</v>
       </c>
       <c r="C64">
         <v>2019</v>
@@ -1937,12 +2502,12 @@
       <c r="F64">
         <v>96</v>
       </c>
-      <c r="G64" s="3" t="s">
+      <c r="G64" s="5" t="s">
         <v>32</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>